--- a/LIACSserver/dashboard/excelfiles/professors_gender.xlsx
+++ b/LIACSserver/dashboard/excelfiles/professors_gender.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D329"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,7 +520,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1526</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -538,7 +538,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1526</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -556,7 +556,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>1530</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -570,11 +570,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1530</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>1536</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -606,11 +606,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1536</t>
+          <t>1537</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>1539</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -664,7 +664,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1539</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1543</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>15441546</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1543</t>
+          <t>1545</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1544</t>
+          <t>1546</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -754,7 +754,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1545</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1546</t>
+          <t>1550</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -790,7 +790,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>1554</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>1558</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -822,11 +822,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -840,11 +840,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1554</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1558</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -880,7 +880,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>1564</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -894,11 +894,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>1565</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -916,7 +916,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -934,7 +934,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1569</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -948,11 +948,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1565</t>
+          <t>1570</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -970,7 +970,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1572</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1573</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1002,11 +1002,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1569</t>
+          <t>1574</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1570</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1571</t>
+          <t>1577</t>
         </is>
       </c>
       <c r="D34" t="n">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1572</t>
+          <t>15801581</t>
         </is>
       </c>
       <c r="D35" t="n">
@@ -1074,11 +1074,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1573</t>
+          <t>1581</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1092,11 +1092,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>1574</t>
+          <t>1583</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1584</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1576</t>
+          <t>1590</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1146,11 +1146,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1577</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>1579</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1182,11 +1182,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1580</t>
+          <t>1598</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1204,11 +1204,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1581</t>
+          <t>1600</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
@@ -1218,15 +1218,15 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
@@ -1236,15 +1236,15 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1584</t>
+          <t>1604</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1586</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -1276,11 +1276,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
@@ -1294,11 +1294,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1591</t>
+          <t>1612</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -1326,15 +1326,15 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>1614</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
@@ -1344,15 +1344,15 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>1596</t>
+          <t>1617</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
@@ -1362,15 +1362,15 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1597</t>
+          <t>1619</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -1384,11 +1384,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1598</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1600</t>
+          <t>1625</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>1626</t>
         </is>
       </c>
       <c r="D55" t="n">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1631</t>
         </is>
       </c>
       <c r="D56" t="n">
@@ -1452,11 +1452,11 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1606</t>
+          <t>1632</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1608</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -1488,11 +1488,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1609</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D59" t="n">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -1524,11 +1524,11 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1612</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -1560,11 +1560,11 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1614</t>
+          <t>1643</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1578,11 +1578,11 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1596,11 +1596,11 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1617</t>
+          <t>1645</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1619</t>
+          <t>1646</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1620</t>
+          <t>1647</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1622</t>
+          <t>1648</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1623</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -1686,11 +1686,11 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1625</t>
+          <t>1651</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -1704,11 +1704,11 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1626</t>
+          <t>1652</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>1631</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -1740,11 +1740,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1632</t>
+          <t>1656</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>1658</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1776,11 +1776,11 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>1659</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>1666</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1640</t>
+          <t>1667</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -1848,11 +1848,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1642</t>
+          <t>1668</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -1866,11 +1866,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1643</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1884,11 +1884,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1644</t>
+          <t>1677</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -1902,11 +1902,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1645</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1920,11 +1920,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1646</t>
+          <t>1685</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -1938,11 +1938,11 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1647</t>
+          <t>1686</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -1956,11 +1956,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1648</t>
+          <t>1688</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1649</t>
+          <t>1692</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>1693</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -2028,11 +2028,11 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1652</t>
+          <t>1696</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1653</t>
+          <t>1697</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>1656</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -2086,11 +2086,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1658</t>
+          <t>1703</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
@@ -2104,11 +2104,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1659</t>
+          <t>1704</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
@@ -2122,11 +2122,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -2140,11 +2140,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1666</t>
+          <t>1708</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -2154,15 +2154,15 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2172,15 +2172,15 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1668</t>
+          <t>1711</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
@@ -2190,15 +2190,15 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1712</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -2208,15 +2208,15 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1677</t>
+          <t>1713</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -2230,11 +2230,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1685</t>
+          <t>1716</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102">
@@ -2266,11 +2266,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1723</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
@@ -2280,15 +2280,15 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1688</t>
+          <t>1724</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104">
@@ -2302,11 +2302,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1692</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -2316,15 +2316,15 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1727</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106">
@@ -2334,15 +2334,15 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>1729</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -2356,11 +2356,11 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>1696</t>
+          <t>1730</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108">
@@ -2374,11 +2374,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1731</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
@@ -2392,11 +2392,11 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>1735</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
@@ -2406,11 +2406,11 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>1703</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="D110" t="n">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>1704</t>
+          <t>1739</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -2442,11 +2442,11 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>1740</t>
         </is>
       </c>
       <c r="D112" t="n">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1741</t>
         </is>
       </c>
       <c r="D113" t="n">
@@ -2478,11 +2478,11 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>1709</t>
+          <t>1742</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -2496,11 +2496,11 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>1711</t>
+          <t>1746</t>
         </is>
       </c>
       <c r="D115" t="n">
@@ -2514,11 +2514,11 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>1712</t>
+          <t>1749</t>
         </is>
       </c>
       <c r="D116" t="n">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>1713</t>
+          <t>1753</t>
         </is>
       </c>
       <c r="D117" t="n">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>1754</t>
         </is>
       </c>
       <c r="D118" t="n">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>1716</t>
+          <t>1757</t>
         </is>
       </c>
       <c r="D119" t="n">
@@ -2586,11 +2586,11 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>1758</t>
         </is>
       </c>
       <c r="D120" t="n">
@@ -2604,11 +2604,11 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>1759</t>
         </is>
       </c>
       <c r="D121" t="n">
@@ -2622,11 +2622,11 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -2640,11 +2640,11 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1727</t>
+          <t>1763</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -2658,11 +2658,11 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1729</t>
+          <t>1764</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -2676,11 +2676,11 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>1730</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="D125" t="n">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1731</t>
+          <t>17671769</t>
         </is>
       </c>
       <c r="D126" t="n">
@@ -2712,11 +2712,11 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>1735</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="D127" t="n">
@@ -2730,11 +2730,11 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -2748,11 +2748,11 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>1739</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -2766,11 +2766,11 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>1740</t>
+          <t>1773</t>
         </is>
       </c>
       <c r="D130" t="n">
@@ -2784,11 +2784,11 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>1741</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1742</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="D132" t="n">
@@ -2820,11 +2820,11 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>1746</t>
+          <t>1777</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -2838,11 +2838,11 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>1749</t>
+          <t>1778</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1753</t>
+          <t>1779</t>
         </is>
       </c>
       <c r="D135" t="n">
@@ -2874,11 +2874,11 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>1754</t>
+          <t>1783</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -2892,11 +2892,11 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>1784</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -2910,11 +2910,11 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>1758</t>
+          <t>1786</t>
         </is>
       </c>
       <c r="D138" t="n">
@@ -2928,11 +2928,11 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1759</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>1763</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="D141" t="n">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>1764</t>
+          <t>1792</t>
         </is>
       </c>
       <c r="D142" t="n">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3018,11 +3018,11 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>1767</t>
+          <t>1794</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3036,11 +3036,11 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1795</t>
         </is>
       </c>
       <c r="D145" t="n">
@@ -3054,11 +3054,11 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="D146" t="n">
@@ -3072,11 +3072,11 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>1772</t>
+          <t>1797</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -3090,11 +3090,11 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1773</t>
+          <t>1798</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3112,11 +3112,11 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>1801</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150">
@@ -3126,15 +3126,15 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>1802</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
@@ -3144,15 +3144,15 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152">
@@ -3162,15 +3162,15 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1778</t>
+          <t>1805</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153">
@@ -3180,15 +3180,15 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>1779</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154">
@@ -3202,11 +3202,11 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1783</t>
+          <t>1807</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="155">
@@ -3220,11 +3220,11 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1784</t>
+          <t>1808</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="156">
@@ -3238,11 +3238,11 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1786</t>
+          <t>1811</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157">
@@ -3252,15 +3252,15 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1812</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158">
@@ -3270,15 +3270,15 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159">
@@ -3288,15 +3288,15 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1814</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="160">
@@ -3310,11 +3310,11 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161">
@@ -3324,15 +3324,15 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="162">
@@ -3342,15 +3342,15 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1794</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163">
@@ -3360,15 +3360,15 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>1795</t>
+          <t>1818</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164">
@@ -3378,15 +3378,15 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>1820</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="165">
@@ -3396,15 +3396,15 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1797</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
@@ -3414,15 +3414,15 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1798</t>
+          <t>1823</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167">
@@ -3432,11 +3432,11 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>1801</t>
+          <t>1826</t>
         </is>
       </c>
       <c r="D167" t="n">
@@ -3450,11 +3450,11 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1827</t>
         </is>
       </c>
       <c r="D168" t="n">
@@ -3468,11 +3468,11 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1804</t>
+          <t>1828</t>
         </is>
       </c>
       <c r="D169" t="n">
@@ -3486,11 +3486,11 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1829</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -3504,11 +3504,11 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1830</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -3522,11 +3522,11 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>1807</t>
+          <t>1831</t>
         </is>
       </c>
       <c r="D172" t="n">
@@ -3540,11 +3540,11 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>1832</t>
         </is>
       </c>
       <c r="D173" t="n">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>1811</t>
+          <t>1833</t>
         </is>
       </c>
       <c r="D174" t="n">
@@ -3576,11 +3576,11 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1834</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -3594,11 +3594,11 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>1835</t>
         </is>
       </c>
       <c r="D176" t="n">
@@ -3612,11 +3612,11 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1836</t>
         </is>
       </c>
       <c r="D177" t="n">
@@ -3630,11 +3630,11 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>1837</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -3648,11 +3648,11 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="D179" t="n">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>1839</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -3684,11 +3684,11 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1818</t>
+          <t>1840</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -3702,11 +3702,11 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1841</t>
         </is>
       </c>
       <c r="D182" t="n">
@@ -3720,11 +3720,11 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1842</t>
         </is>
       </c>
       <c r="D183" t="n">
@@ -3738,11 +3738,11 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1843</t>
         </is>
       </c>
       <c r="D184" t="n">
@@ -3756,11 +3756,11 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1844</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -3774,11 +3774,11 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>1827</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="D186" t="n">
@@ -3792,11 +3792,11 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1846</t>
         </is>
       </c>
       <c r="D187" t="n">
@@ -3810,11 +3810,11 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>1847</t>
         </is>
       </c>
       <c r="D188" t="n">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1830</t>
+          <t>1848</t>
         </is>
       </c>
       <c r="D189" t="n">
@@ -3846,11 +3846,11 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>1831</t>
+          <t>1849</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -3864,11 +3864,11 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1832</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -3882,11 +3882,11 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>1833</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -3900,11 +3900,11 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>1834</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="D193" t="n">
@@ -3918,11 +3918,11 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>1835</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -3936,11 +3936,11 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>1836</t>
+          <t>1854</t>
         </is>
       </c>
       <c r="D195" t="n">
@@ -3958,7 +3958,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="D196" t="n">
@@ -3972,11 +3972,11 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1856</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -3990,11 +3990,11 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>1839</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -4008,11 +4008,11 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="D199" t="n">
@@ -4026,11 +4026,11 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>1841</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="D200" t="n">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>1842</t>
+          <t>1860</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -4062,11 +4062,11 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="D202" t="n">
@@ -4080,11 +4080,11 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1862</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -4098,11 +4098,11 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1863</t>
         </is>
       </c>
       <c r="D204" t="n">
@@ -4116,11 +4116,11 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1846</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="D205" t="n">
@@ -4134,11 +4134,11 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -4152,11 +4152,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D207" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -4188,11 +4188,11 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1850</t>
+          <t>1868</t>
         </is>
       </c>
       <c r="D209" t="n">
@@ -4206,11 +4206,11 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1869</t>
         </is>
       </c>
       <c r="D210" t="n">
@@ -4224,11 +4224,11 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1870</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -4242,11 +4242,11 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="D212" t="n">
@@ -4260,11 +4260,11 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1872</t>
         </is>
       </c>
       <c r="D213" t="n">
@@ -4278,11 +4278,11 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>1855</t>
+          <t>1873</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -4296,11 +4296,11 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1874</t>
         </is>
       </c>
       <c r="D215" t="n">
@@ -4314,11 +4314,11 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>1857</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="D216" t="n">
@@ -4332,11 +4332,11 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1876</t>
         </is>
       </c>
       <c r="D217" t="n">
@@ -4350,11 +4350,11 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1877</t>
         </is>
       </c>
       <c r="D218" t="n">
@@ -4368,11 +4368,11 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1860</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="D219" t="n">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>1879</t>
         </is>
       </c>
       <c r="D220" t="n">
@@ -4404,11 +4404,11 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="D221" t="n">
@@ -4422,11 +4422,11 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>1863</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="D222" t="n">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="D223" t="n">
@@ -4458,11 +4458,11 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>1865</t>
+          <t>1883</t>
         </is>
       </c>
       <c r="D224" t="n">
@@ -4476,11 +4476,11 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1884</t>
         </is>
       </c>
       <c r="D225" t="n">
@@ -4494,11 +4494,11 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D226" t="n">
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="D227" t="n">
@@ -4530,11 +4530,11 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="D228" t="n">
@@ -4548,11 +4548,11 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1870</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="D229" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1889</t>
         </is>
       </c>
       <c r="D230" t="n">
@@ -4584,11 +4584,11 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -4602,11 +4602,11 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>1891</t>
         </is>
       </c>
       <c r="D232" t="n">
@@ -4620,11 +4620,11 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1874</t>
+          <t>1892</t>
         </is>
       </c>
       <c r="D233" t="n">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1893</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -4656,11 +4656,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1876</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="D235" t="n">
@@ -4670,15 +4670,15 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>1877</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="D236" t="n">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -4706,15 +4706,15 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -4728,11 +4728,11 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1880</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -4746,11 +4746,11 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -4764,11 +4764,11 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="D241" t="n">
@@ -4782,11 +4782,11 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1899</t>
         </is>
       </c>
       <c r="D242" t="n">
@@ -4804,11 +4804,11 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>1884</t>
+          <t>1900</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244">
@@ -4818,15 +4818,15 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245">
@@ -4836,15 +4836,15 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246">
@@ -4854,15 +4854,15 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>1887</t>
+          <t>1903</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247">
@@ -4872,15 +4872,15 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1904</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
@@ -4890,33 +4890,33 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250">
@@ -4926,15 +4926,15 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251">
@@ -4944,33 +4944,33 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>1893</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253">
@@ -4980,33 +4980,33 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1909</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255">
@@ -5016,33 +5016,33 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1910</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257">
@@ -5052,15 +5052,15 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1912</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258">
@@ -5070,15 +5070,15 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259">
@@ -5088,33 +5088,33 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261">
@@ -5124,11 +5124,11 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5138,15 +5138,15 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>1915</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5160,11 +5160,11 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="D263" t="n">
@@ -5174,15 +5174,15 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="D264" t="n">
@@ -5196,11 +5196,11 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -5210,15 +5210,15 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="D266" t="n">
@@ -5228,15 +5228,15 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -5246,15 +5246,15 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1918</t>
         </is>
       </c>
       <c r="D268" t="n">
@@ -5268,11 +5268,11 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -5282,15 +5282,15 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -5300,15 +5300,15 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -5322,11 +5322,11 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5336,15 +5336,15 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -5358,11 +5358,11 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -5372,15 +5372,15 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -5394,11 +5394,11 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5408,15 +5408,15 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -5426,15 +5426,15 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -5448,11 +5448,11 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>1915</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D279" t="n">
@@ -5462,15 +5462,15 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="D280" t="n">
@@ -5480,15 +5480,15 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -5498,15 +5498,15 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1926</t>
         </is>
       </c>
       <c r="D282" t="n">
@@ -5516,15 +5516,15 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -5534,15 +5534,15 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>1918</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -5556,11 +5556,11 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1928</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -5574,11 +5574,11 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1929</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -5588,15 +5588,15 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -5606,15 +5606,15 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1930</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -5624,15 +5624,15 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1932</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -5660,15 +5660,15 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -5682,11 +5682,11 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -5696,15 +5696,15 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1935</t>
         </is>
       </c>
       <c r="D293" t="n">
@@ -5718,11 +5718,11 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>1924</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="D294" t="n">
@@ -5736,11 +5736,11 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="D295" t="n">
@@ -5758,7 +5758,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="D296" t="n">
@@ -5772,11 +5772,11 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="D297" t="n">
@@ -5790,11 +5790,11 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="D298" t="n">
@@ -5808,11 +5808,11 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D299" t="n">
@@ -5822,15 +5822,15 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>1928</t>
+          <t>1939</t>
         </is>
       </c>
       <c r="D300" t="n">
@@ -5844,11 +5844,11 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D301" t="n">
@@ -5858,15 +5858,15 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="D302" t="n">
@@ -5876,15 +5876,15 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D303" t="n">
@@ -5894,15 +5894,15 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>1931</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="D304" t="n">
@@ -5916,11 +5916,11 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D305" t="n">
@@ -5930,15 +5930,15 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="D306" t="n">
@@ -5952,11 +5952,11 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="D307" t="n">
@@ -5966,15 +5966,15 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="D308" t="n">
@@ -5988,11 +5988,11 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D309" t="n">
@@ -6002,15 +6002,15 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="D310" t="n">
@@ -6024,11 +6024,11 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -6038,15 +6038,15 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="D312" t="n">
@@ -6060,11 +6060,11 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D313" t="n">
@@ -6074,15 +6074,15 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="D314" t="n">
@@ -6096,11 +6096,11 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="D315" t="n">
@@ -6110,15 +6110,15 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="D316" t="n">
@@ -6132,11 +6132,11 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D317" t="n">
@@ -6146,15 +6146,15 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="D318" t="n">
@@ -6168,11 +6168,11 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D319" t="n">
@@ -6182,15 +6182,15 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="D320" t="n">
@@ -6200,15 +6200,15 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Vrouw</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D321" t="n">
@@ -6218,15 +6218,15 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="D322" t="n">
@@ -6240,11 +6240,11 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D323" t="n">
@@ -6254,15 +6254,15 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="D324" t="n">
@@ -6276,11 +6276,11 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="D325" t="n">
@@ -6290,11 +6290,11 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -6312,11 +6312,11 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D327" t="n">
@@ -6326,15 +6326,15 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Vrouw</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -6348,15 +6348,933 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>17</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>6</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>16</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>3</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>27</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>3</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>21</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>3</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>23</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>7</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>20</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>5</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>23</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>4</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>16</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>5</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>18</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>3</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>10</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>5</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>7</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>4</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>14</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>5</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>10</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>5</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>7</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>5</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>11</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>7</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
           <t>1970</t>
         </is>
       </c>
-      <c r="D329" t="n">
-        <v>20</v>
+      <c r="D361" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>7</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>2</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>5</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>5</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>6</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>3</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>4</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>3</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>4</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>2</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>3</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Vrouw</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2130</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2628</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
